--- a/Souq/src/price/Souq/excel_6_macacoes.xlsx
+++ b/Souq/src/price/Souq/excel_6_macacoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,187 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Macacões</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MACACAO ANTONELLA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/macacao-antonella-04-26-09-019-002.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>539,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Macacões</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MACACAO SARJA LISSA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/macacao-sarja-lissa-04-25-06-001-001.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>359,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Macacões</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MACACAO CAMERON</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/macacao-cameron-04-26-09-028-054.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>438,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Macacões</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MACACAO CECILE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/macacao-cecile-04-26-09-022-054.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>699,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>338,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Macacões</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/black-friday/roupas/macacoes.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MANHO EDITE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/manho-edite-04-26-10-002-006.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>799,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>399,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
